--- a/documentacao/Backlog/Product Bcklog.xlsx
+++ b/documentacao/Backlog/Product Bcklog.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/matheus_s_marques_accenture_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Thais\3ADSB\--consulta\documentacao\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="8_{0CCC1A46-C1CD-4D1F-80BA-731BD4CC2921}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7189EABC-85ED-4562-A7CD-F7F9D9EE89AB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D171585D-F427-4DB1-888A-AA7604214E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C625C11D-11F4-4855-808E-CB8111E86099}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{C625C11D-11F4-4855-808E-CB8111E86099}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -159,12 +159,6 @@
     <t>O médico poderá abrir o prontuário de pacientes para fazer anotações</t>
   </si>
   <si>
-    <t>O médico terá um histórico para visualização de  consultas do paciente</t>
-  </si>
-  <si>
-    <t>O sistema deverá ter auto-preenchimento de formulário, para facilitar no tempo de consulta com o médico</t>
-  </si>
-  <si>
     <t>O sistema deverá ter um histórico e uma lista de agendamentos e consulta que ele já fez</t>
   </si>
   <si>
@@ -196,6 +190,9 @@
   </si>
   <si>
     <t>OK/s Integração</t>
+  </si>
+  <si>
+    <t>O médico terá um histórico para visualização de consultas do paciente</t>
   </si>
 </sst>
 </file>
@@ -305,7 +302,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -601,24 +598,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7170AB86-F420-4C7F-AA44-198F3EB66D3C}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="B37" sqref="B36:B37"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="98.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="112" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -635,10 +632,10 @@
         <v>7</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -655,10 +652,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -675,10 +672,10 @@
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -695,10 +692,10 @@
         <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -715,10 +712,10 @@
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -735,10 +732,10 @@
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -756,7 +753,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -773,10 +770,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -793,10 +790,10 @@
         <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -813,10 +810,10 @@
         <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -833,10 +830,10 @@
         <v>8</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>13</v>
       </c>
@@ -853,10 +850,10 @@
         <v>8</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>14</v>
       </c>
@@ -873,10 +870,10 @@
         <v>8</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>15</v>
       </c>
@@ -893,10 +890,10 @@
         <v>8</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>16</v>
       </c>
@@ -910,13 +907,13 @@
         <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>17</v>
       </c>
@@ -933,10 +930,10 @@
         <v>8</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>18</v>
       </c>
@@ -950,13 +947,13 @@
         <v>22</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>19</v>
       </c>
@@ -970,18 +967,18 @@
         <v>22</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>5</v>
@@ -993,10 +990,10 @@
         <v>8</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>22</v>
       </c>
@@ -1010,13 +1007,13 @@
         <v>6</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>25</v>
       </c>
@@ -1033,10 +1030,10 @@
         <v>8</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>26</v>
       </c>
@@ -1053,10 +1050,10 @@
         <v>8</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>27</v>
       </c>
@@ -1073,10 +1070,10 @@
         <v>8</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>28</v>
       </c>
@@ -1090,13 +1087,13 @@
         <v>6</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>29</v>
       </c>
@@ -1104,19 +1101,19 @@
         <v>34</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>30</v>
       </c>
@@ -1124,19 +1121,19 @@
         <v>35</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>31</v>
       </c>
@@ -1153,10 +1150,10 @@
         <v>8</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>32</v>
       </c>
@@ -1170,27 +1167,27 @@
         <v>23</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>33</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>34</v>
       </c>
@@ -1204,18 +1201,18 @@
         <v>6</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>5</v>
@@ -1224,13 +1221,13 @@
         <v>23</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>36</v>
       </c>
@@ -1247,51 +1244,31 @@
         <v>8</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
-        <v>39</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F34" xr:uid="{60FC0B48-F73C-45DA-88EA-F1197A40992E}"/>
+  <autoFilter ref="A1:F33" xr:uid="{60FC0B48-F73C-45DA-88EA-F1197A40992E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
